--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>用户名</t>
   </si>
@@ -68,34 +68,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wangwu01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu001_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu002_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu003_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu004_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu005_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wangwu01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu001_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu002_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu003_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu004_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu005_xx</t>
+    <t>测试部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,7 +461,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,10 +491,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -497,13 +502,13 @@
       <c r="D2">
         <v>15822172341</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="E2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -515,12 +520,12 @@
         <v>15822172342</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -532,12 +537,12 @@
         <v>15822172343</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -549,12 +554,12 @@
         <v>15822172344</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -566,7 +571,7 @@
         <v>15822172345</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23515"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>用户名</t>
   </si>
@@ -92,22 +95,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部门</t>
+    <t>信息科</t>
+  </si>
+  <si>
+    <t>信息科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,8 +177,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -273,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -450,7 +448,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -461,18 +459,18 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="23.25" customWidth="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -503,10 +501,10 @@
         <v>15822172341</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -520,10 +518,10 @@
         <v>15822172342</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -537,10 +535,10 @@
         <v>15822172343</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -554,10 +552,10 @@
         <v>15822172344</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -571,7 +569,7 @@
         <v>15822172345</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -584,6 +582,11 @@
     <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23515"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60A48BF1-1B33-4708-82CD-099517815569}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>用户名</t>
   </si>
@@ -48,9 +49,6 @@
     <t>wangwu04</t>
   </si>
   <si>
-    <t>wangwu05</t>
-  </si>
-  <si>
     <t>wangwu001@test.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,14 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wangwu004@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu005@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wangwu01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,21 +81,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wangwu005_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>信息科</t>
   </si>
   <si>
     <t>信息科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65324324324@test.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -166,19 +172,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -448,29 +455,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,102 +495,84 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>15822172341</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14">
-      <c r="A3" t="s">
+      <c r="E5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>15822172342</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>15822172343</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>15822172344</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>15822172345</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A953769C-373F-4226-B908-C5418F25D340}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DFEF40B-27F0-4072-985E-5C0198F3307D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,6 +53,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wangwu01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu001_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu002_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu003_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu004_xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172342</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172343</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wangwu002@test.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,47 +101,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wangwu01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu001_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu002_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu003_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu004_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65324324324@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部门</t>
+    <t>wangwu004@test.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,10 +175,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,13 +463,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="2"/>
   </cols>
@@ -491,81 +491,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{16A7ECAD-F31C-49B4-885E-A8D1E09B7DD0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{AF283A1D-A7D4-47FB-A2FD-FB386DE9589D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{EB9BD9B3-CF55-41C0-A573-32D9E85F067D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{205B8B35-B6B4-4015-BAD3-3F9DF1E64217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>

--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23515"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DFEF40B-27F0-4072-985E-5C0198F3307D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>用户名</t>
   </si>
@@ -102,13 +101,21 @@
   </si>
   <si>
     <t>wangwu004@test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,8 +188,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,29 +459,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="2"/>
+    <col min="1" max="2" width="13.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="11.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -505,10 +512,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -522,10 +529,10 @@
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -542,7 +549,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -562,13 +569,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{16A7ECAD-F31C-49B4-885E-A8D1E09B7DD0}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{AF283A1D-A7D4-47FB-A2FD-FB386DE9589D}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{EB9BD9B3-CF55-41C0-A573-32D9E85F067D}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{205B8B35-B6B4-4015-BAD3-3F9DF1E64217}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DFEF40B-27F0-4072-985E-5C0198F3307D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{309ECDEC-5BCF-44BA-856B-DBCC8B2E6518}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,19 +89,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wangwu002@test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu003@test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu004@test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu002@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu003@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu004@test.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +463,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -516,13 +516,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -533,13 +533,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -550,13 +550,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/apps/runtests/integration/data/staff-normal-test.xlsx
+++ b/apps/runtests/integration/data/staff-normal-test.xlsx
@@ -1,28 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23515"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView windowWidth="28695" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>用户名</t>
   </si>
@@ -39,111 +31,83 @@
     <t>所属科室</t>
   </si>
   <si>
-    <t>wangwu02</t>
-  </si>
-  <si>
-    <t>wangwu03</t>
-  </si>
-  <si>
-    <t>wangwu04</t>
+    <t>wangwu001_xx</t>
+  </si>
+  <si>
+    <t>wangwu011</t>
   </si>
   <si>
     <t>wangwu001@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu001_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15822172341</t>
+  </si>
+  <si>
+    <t>信息科</t>
   </si>
   <si>
     <t>wangwu002_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu021</t>
+  </si>
+  <si>
+    <t>wangwu002@test.com</t>
+  </si>
+  <si>
+    <t>15822172342</t>
   </si>
   <si>
     <t>wangwu003_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu031</t>
+  </si>
+  <si>
+    <t>wangwu003@test.com</t>
+  </si>
+  <si>
+    <t>15822172343</t>
+  </si>
+  <si>
+    <t>测试部门</t>
   </si>
   <si>
     <t>wangwu004_xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172342</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15822172343</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangwu041</t>
+  </si>
+  <si>
+    <t>wangwu004@test.com</t>
   </si>
   <si>
     <t>15822172344</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu002@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu003@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangwu004@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,19 +115,354 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -171,34 +470,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -209,7 +790,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="202020"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -456,130 +1037,120 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.70833333333333" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="13.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="2"/>
+    <col min="1" max="2" width="13.5666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.425" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.70833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="11.25" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId1" display="wangwu001@test.com" tooltip="mailto:wangwu001@test.com"/>
+    <hyperlink ref="C3" r:id="rId2" display="wangwu002@test.com" tooltip="mailto:wangwu002@test.com"/>
+    <hyperlink ref="C4" r:id="rId3" display="wangwu003@test.com"/>
+    <hyperlink ref="C5" r:id="rId4" display="wangwu004@test.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <headerFooter/>
 </worksheet>
 </file>